--- a/contPareceres.xlsx
+++ b/contPareceres.xlsx
@@ -50829,13 +50829,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F64E2F34-452D-4112-8C59-2E678571CDEA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C266C48-E2E3-4FB2-930B-CB10B9A8604F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A366A5AC-F1B5-4DFE-88EA-EADFF83A0A4B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05DF6968-2623-4288-BAE6-AF56064CB096}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8E6E0B8-223B-464B-965C-DDDF99A39EAB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FC1CE49-10E5-43F4-A707-E80027AC21B3}"/>
 </file>
--- a/contPareceres.xlsx
+++ b/contPareceres.xlsx
@@ -50829,13 +50829,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C266C48-E2E3-4FB2-930B-CB10B9A8604F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C450DF0-398C-49D0-9591-5DDD9BF729AA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05DF6968-2623-4288-BAE6-AF56064CB096}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45D32CCC-BECD-46ED-9AEB-98527823499A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FC1CE49-10E5-43F4-A707-E80027AC21B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{002B5393-0E5B-49B8-A921-628DE04B441F}"/>
 </file>
--- a/contPareceres.xlsx
+++ b/contPareceres.xlsx
@@ -55491,13 +55491,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AD090C3-BC44-4A9F-94C1-CB4EB6CA8D4E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F77E1C80-91C3-42CF-B0DB-15D574B10A1F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A215BB15-F501-4D5A-826E-1D6C1582836D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0E9D4F-19A8-40C0-ABBC-45D087E2CD3E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59A65B89-C736-4CB4-8652-D5E573DF4B94}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D64346-D327-4486-9E90-5D28CD37AE59}"/>
 </file>
--- a/contPareceres.xlsx
+++ b/contPareceres.xlsx
@@ -55491,13 +55491,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F77E1C80-91C3-42CF-B0DB-15D574B10A1F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14C9E96D-FF7B-446C-8595-7329C4DBD3AB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0E9D4F-19A8-40C0-ABBC-45D087E2CD3E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EDE62B9-B055-4D36-9462-9934217FE564}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D64346-D327-4486-9E90-5D28CD37AE59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{909B0BDD-649A-4967-9B35-36B6431B77D1}"/>
 </file>
--- a/contPareceres.xlsx
+++ b/contPareceres.xlsx
@@ -56638,13 +56638,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F01B601F-6606-4ADB-9630-68D74BC5378E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{543E802B-24B3-448D-A1B3-8F4E82A0658C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8A78645-866C-43B1-A0A2-415633FF0BD6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC2C8B9D-3840-433C-9F74-CFBB502EFC6B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0987B6FD-22ED-46AE-9D93-A047A3443E90}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CE83943-2E90-4195-8B88-0202B847FCBC}"/>
 </file>
--- a/contPareceres.xlsx
+++ b/contPareceres.xlsx
@@ -56638,13 +56638,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{543E802B-24B3-448D-A1B3-8F4E82A0658C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5736316A-CE22-4A4A-A03E-4C72F3B31FE4}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC2C8B9D-3840-433C-9F74-CFBB502EFC6B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC3A2D20-8A6F-407E-B8C9-68C0FA13B991}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CE83943-2E90-4195-8B88-0202B847FCBC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4808FE22-C72A-4FA9-B166-DCB51AC925FF}"/>
 </file>
--- a/contPareceres.xlsx
+++ b/contPareceres.xlsx
@@ -56638,13 +56638,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5736316A-CE22-4A4A-A03E-4C72F3B31FE4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0C8CC4F-3DBC-42BE-8750-B9B0B1959E5F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC3A2D20-8A6F-407E-B8C9-68C0FA13B991}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5031EB35-4B57-4FF3-B809-D1776D75B60F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4808FE22-C72A-4FA9-B166-DCB51AC925FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9204314C-7D8A-451A-AD2C-3246E19533C7}"/>
 </file>
--- a/contPareceres.xlsx
+++ b/contPareceres.xlsx
@@ -56638,13 +56638,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0C8CC4F-3DBC-42BE-8750-B9B0B1959E5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF25DE4-8525-41F6-8F48-807C5E708EC7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5031EB35-4B57-4FF3-B809-D1776D75B60F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD0311AF-1720-41BF-A10D-ADCD969BF30F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9204314C-7D8A-451A-AD2C-3246E19533C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6143296E-9461-479C-9816-368B53F5016B}"/>
 </file>
--- a/contPareceres.xlsx
+++ b/contPareceres.xlsx
@@ -56638,13 +56638,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBF25DE4-8525-41F6-8F48-807C5E708EC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44E0A77D-14A2-4509-BC8E-D723A10E97FA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD0311AF-1720-41BF-A10D-ADCD969BF30F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89678D8C-F7CC-401B-A597-70D57C4172E2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6143296E-9461-479C-9816-368B53F5016B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90812579-9D19-4CD8-9198-AE7B7BBD0118}"/>
 </file>
--- a/contPareceres.xlsx
+++ b/contPareceres.xlsx
@@ -56638,13 +56638,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44E0A77D-14A2-4509-BC8E-D723A10E97FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8B0DA7-54E1-413D-9EF4-4967A9DC9A69}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89678D8C-F7CC-401B-A597-70D57C4172E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A73760AE-A36B-48A8-81A5-3D4678A2260F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90812579-9D19-4CD8-9198-AE7B7BBD0118}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10E81E17-1068-42B3-ACE4-0B1CAF603091}"/>
 </file>